--- a/Bamboo_HR/input/emp_data.xlsx
+++ b/Bamboo_HR/input/emp_data.xlsx
@@ -401,7 +401,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>837888</v>
+        <v>88778</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>

--- a/Bamboo_HR/input/emp_data.xlsx
+++ b/Bamboo_HR/input/emp_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t xml:space="preserve">employee_id </t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
   </si>
 </sst>
 </file>
@@ -81,7 +90,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +112,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,7 +162,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -162,6 +177,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -356,7 +375,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -401,7 +420,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>88778</v>
+        <v>254654</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -432,12 +451,36 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="A3" s="1" t="n">
+        <v>546546</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>44576</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>75875</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>

--- a/Bamboo_HR/input/emp_data.xlsx
+++ b/Bamboo_HR/input/emp_data.xlsx
@@ -90,7 +90,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,12 +112,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,7 +173,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -375,7 +369,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -420,7 +414,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>254654</v>
+        <v>9878</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -452,7 +446,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>546546</v>
+        <v>88878</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
